--- a/medicine/Mort/Huntsville_Unit/Huntsville_Unit.xlsx
+++ b/medicine/Mort/Huntsville_Unit/Huntsville_Unit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Huntsville Unit (l'« unité de Huntsville ») ou Texas State Penitentiary at Huntsville (« Pénitencier de l'État du Texas à Huntsville »), aussi appelée Walls Unit, est une prison américaine située à Huntsville au Texas. Ouverte en 1849[1], elle est gérée par le département de justice criminelle du Texas (en).
-La Huntsville Unit est la seule prison habilitée à appliquer la peine de mort au Texas ; c'est donc là que se trouve la seule chambre d'exécution (en) de l'État[2],[3]. 
-Le couloir de la mort pour les hommes est situé dans l’Allan B. Polunsky Unit à West Livingston et celui des femmes dans la Mountain View Unit (en) à Gatesville[4]. Chaque exécution nécessite donc un transfert vers la Huntsville Unit.
+La Huntsville Unit (l'« unité de Huntsville ») ou Texas State Penitentiary at Huntsville (« Pénitencier de l'État du Texas à Huntsville »), aussi appelée Walls Unit, est une prison américaine située à Huntsville au Texas. Ouverte en 1849, elle est gérée par le département de justice criminelle du Texas (en).
+La Huntsville Unit est la seule prison habilitée à appliquer la peine de mort au Texas ; c'est donc là que se trouve la seule chambre d'exécution (en) de l'État,. 
+Le couloir de la mort pour les hommes est situé dans l’Allan B. Polunsky Unit à West Livingston et celui des femmes dans la Mountain View Unit (en) à Gatesville. Chaque exécution nécessite donc un transfert vers la Huntsville Unit.
 </t>
         </is>
       </c>
